--- a/complete_todolist.xlsx
+++ b/complete_todolist.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,35 +461,159 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45288</v>
+        <v>45287</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>see my crush</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
+          <t>wake up early 6 Am</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>shopping</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>xcvsav</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45288</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>speak with her</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wake up at 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>personal</t>
         </is>

--- a/complete_todolist.xlsx
+++ b/complete_todolist.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,26 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>go to sleep before 11pm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
